--- a/visor/data/Thompkins/printer.xlsx
+++ b/visor/data/Thompkins/printer.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dpc\ETSU\projects\WIT\CMMPPT\visor\data\Thompkins\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA94B23A-50A0-4E82-9800-1DAC20B126A3}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BC68C19-DC01-4753-95BF-D8C5E2C63603}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2160" yWindow="2160" windowWidth="20124" windowHeight="10200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1116" yWindow="1116" windowWidth="20124" windowHeight="10200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="printer" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="985" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1072" uniqueCount="161">
   <si>
     <t>name</t>
   </si>
@@ -87,57 +87,21 @@
     <t>Ender3</t>
   </si>
   <si>
-    <t>4 Makerbot, 2 Prusa, 3 Ender 3</t>
-  </si>
-  <si>
-    <t>1.75mm</t>
-  </si>
-  <si>
-    <t>2 kg PETG, 8kg PLA, 4kg ABS</t>
-  </si>
-  <si>
     <t>Taz</t>
   </si>
   <si>
     <t>Kirstin Petersen / Nils Napp</t>
   </si>
   <si>
-    <t>3xPrusa, 1 Lulzbot Taz 6, (+ 2xIIIP and 1xZYYX in repair)</t>
-  </si>
-  <si>
-    <t>1.75mm, 2.85mm</t>
-  </si>
-  <si>
-    <t>2 x 1kg PET, 6kg PLA, 1kg ABS</t>
+    <t>Prusa3</t>
   </si>
   <si>
     <t>Prusa</t>
   </si>
   <si>
-    <t>1.76mm</t>
-  </si>
-  <si>
-    <t>2KG PETG</t>
-  </si>
-  <si>
-    <t>Prusa3</t>
-  </si>
-  <si>
-    <t>Artillery3D Genius, Railcore 300ZL, Xinkebot, Ender 3</t>
-  </si>
-  <si>
-    <t>1.5kg PETG, 12kg PLA, 10kg PETG on order</t>
-  </si>
-  <si>
     <t>Doug Binder</t>
   </si>
   <si>
-    <t>Prusa i3 mk3s</t>
-  </si>
-  <si>
-    <t>4kg PETG, 2kg PLA</t>
-  </si>
-  <si>
     <t>Railcore</t>
   </si>
   <si>
@@ -153,24 +117,9 @@
     <t>Artillery3</t>
   </si>
   <si>
-    <t>Ultimaker 3</t>
-  </si>
-  <si>
-    <t>2.85 mm</t>
-  </si>
-  <si>
-    <t>2 kg PETG / 10+ kg PLA, 2 kg ABS</t>
-  </si>
-  <si>
     <t xml:space="preserve">Jesse Valgora / STUDIO V </t>
   </si>
   <si>
-    <t>Prusa / Creality Ender 3</t>
-  </si>
-  <si>
-    <t>2kg PETG</t>
-  </si>
-  <si>
     <t>Umaker2</t>
   </si>
   <si>
@@ -180,24 +129,12 @@
     <t>Umaker1</t>
   </si>
   <si>
-    <t>Prusa, Ender 3, Makerbot Rep2</t>
-  </si>
-  <si>
-    <t>6KG PETG, 30kg PLA</t>
-  </si>
-  <si>
     <t>Yao Lu</t>
   </si>
   <si>
     <t>Eric Gever</t>
   </si>
   <si>
-    <t>Creality Ender 3 Pro</t>
-  </si>
-  <si>
-    <t>1 kg PETG, 2 kg PLA</t>
-  </si>
-  <si>
     <t>Edner</t>
   </si>
   <si>
@@ -207,616 +144,349 @@
     <t>Unknown1</t>
   </si>
   <si>
-    <t>3x Creality Ender 3, Prusa i3 mk2</t>
-  </si>
-  <si>
-    <t>1kg petg, 10kg petg ordered</t>
-  </si>
-  <si>
     <t>Unknown2</t>
   </si>
   <si>
-    <t>Sovol SV-01</t>
-  </si>
-  <si>
-    <t>1.75 mm</t>
-  </si>
-  <si>
-    <t>3 kg PLA / 2kg PETG on order</t>
-  </si>
-  <si>
     <t>Arthur Yang</t>
   </si>
   <si>
-    <t>https://kowinshi.me/#/bigxy/</t>
-  </si>
-  <si>
-    <t>20+ kg PLA, 1 kg Nylon</t>
-  </si>
-  <si>
     <t>Elliot Wells</t>
   </si>
   <si>
-    <t>Creality Ender 3</t>
-  </si>
-  <si>
-    <t>.5 kg PLA</t>
-  </si>
-  <si>
     <t>Solvo</t>
   </si>
   <si>
     <t>Frank Horowitz</t>
   </si>
   <si>
-    <t>Flashforge Creator Pro</t>
-  </si>
-  <si>
     <t>KOWIN</t>
   </si>
   <si>
     <t>Kowin Shi</t>
   </si>
   <si>
-    <t>2 kg on hand and 3 ordered</t>
-  </si>
-  <si>
     <t>Katie Bradford</t>
   </si>
   <si>
-    <t>2kg PETG on order</t>
-  </si>
-  <si>
     <t>Flashforge</t>
   </si>
   <si>
     <t>Emmett Milliken</t>
   </si>
   <si>
-    <t>Railcore300ZL, Formbot Raptor</t>
-  </si>
-  <si>
-    <t>2.5 PETG on hand 5 ordered, tons PLA</t>
-  </si>
-  <si>
     <t>Name?</t>
   </si>
   <si>
-    <t>2 kg PETG on hand</t>
-  </si>
-  <si>
     <t>Mose Sakashita</t>
   </si>
   <si>
-    <t>(x3) Creality Ender 5 and more</t>
-  </si>
-  <si>
     <t>Railcor</t>
   </si>
   <si>
     <t>Satre Stuelke, MD, MFA</t>
   </si>
   <si>
-    <t>1 kg PETG, 1 kg PLA</t>
-  </si>
-  <si>
     <t>Raptor</t>
   </si>
   <si>
-    <t>1 Zortrax M200</t>
-  </si>
-  <si>
-    <t>0.6 kg ABS, 0.2 kg PLA</t>
-  </si>
-  <si>
     <t>Taimur Gibson</t>
   </si>
   <si>
-    <t>1 Zortrax M300</t>
-  </si>
-  <si>
-    <t>2 kg PETG, 1 kg nylon, 3 kg PLA</t>
-  </si>
-  <si>
     <t>Jonathan Epstein</t>
   </si>
   <si>
-    <t>~1.25 kg PLA</t>
-  </si>
-  <si>
-    <t>~ 8kg of PLA</t>
-  </si>
-  <si>
     <t>Other1</t>
   </si>
   <si>
     <t>Other2</t>
   </si>
   <si>
-    <t>Creality Ender 3s</t>
-  </si>
-  <si>
-    <t>~7kg PLA</t>
-  </si>
-  <si>
     <t>Other3</t>
   </si>
   <si>
-    <t>Creality 3D CR10S</t>
-  </si>
-  <si>
     <t>Other4</t>
   </si>
   <si>
-    <t>1kg PETG, 2KGPLA, 1KG TPU</t>
-  </si>
-  <si>
     <t>other5</t>
   </si>
   <si>
-    <t>Prusa, FF Creator Pro</t>
-  </si>
-  <si>
-    <t>1.5kg PETG, 5kg PLA</t>
-  </si>
-  <si>
     <t>Samuel Nelson</t>
   </si>
   <si>
-    <t>1.75 \mm</t>
-  </si>
-  <si>
     <t>Zortrax</t>
   </si>
   <si>
     <t>Jenny Sabin Studio</t>
   </si>
   <si>
-    <t>Formlabs Form2</t>
-  </si>
-  <si>
-    <t>SLA</t>
-  </si>
-  <si>
     <t>Sabin Lab / AAP</t>
   </si>
   <si>
-    <t>4kg PLA, 1kg PETG ordered</t>
-  </si>
-  <si>
     <t>Kashyap Valiveti</t>
   </si>
   <si>
     <t>Jesus Luna</t>
   </si>
   <si>
+    <t>Manying Chen</t>
+  </si>
+  <si>
+    <t>Jing Wang</t>
+  </si>
+  <si>
+    <t>CR10S</t>
+  </si>
+  <si>
+    <t>Rondell Almodovar</t>
+  </si>
+  <si>
+    <t>Teng Teng</t>
+  </si>
+  <si>
+    <t>Max Westwater</t>
+  </si>
+  <si>
+    <t>Pro</t>
+  </si>
+  <si>
+    <t>Reuben Posada</t>
+  </si>
+  <si>
+    <t>Form</t>
+  </si>
+  <si>
+    <t>Cheong</t>
+  </si>
+  <si>
+    <t>Tim Hoover</t>
+  </si>
+  <si>
+    <t>NONE</t>
+  </si>
+  <si>
+    <t>Lucas Warfield</t>
+  </si>
+  <si>
     <t>TAZ</t>
   </si>
   <si>
-    <t>Manying Chen</t>
-  </si>
-  <si>
-    <t>Jing Wang</t>
-  </si>
-  <si>
-    <t>2 Markforged Mark Two's and 1 Markforged Onyx One</t>
-  </si>
-  <si>
-    <t>3200cc onyx</t>
-  </si>
-  <si>
-    <t>CR10S</t>
-  </si>
-  <si>
-    <t>Rondell Almodovar</t>
-  </si>
-  <si>
-    <t>2kg PLA, 1kg PETG ordered</t>
-  </si>
-  <si>
-    <t>Teng Teng</t>
-  </si>
-  <si>
-    <t>Monoprice Maker Select Plus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75mm                        </t>
-  </si>
-  <si>
-    <t>2kg PLA</t>
-  </si>
-  <si>
-    <t>partial kg PLA, ordered PETG</t>
-  </si>
-  <si>
-    <t>gMax 1.5+ and gMax 2</t>
-  </si>
-  <si>
-    <t>150+ kg PLA</t>
-  </si>
-  <si>
-    <t>Max Westwater</t>
-  </si>
-  <si>
-    <t>none - I have sterile material for making masks and need the template</t>
-  </si>
-  <si>
-    <t>250-1000  sheets of https://us.vwr.com/store/product/4790348/autoclave-wraps-hpk-industries</t>
-  </si>
-  <si>
-    <t>Pro</t>
-  </si>
-  <si>
-    <t>Original Prusa i3/ Creality Ender 3</t>
-  </si>
-  <si>
-    <t>2 kg PLA</t>
-  </si>
-  <si>
-    <t>Reuben Posada</t>
-  </si>
-  <si>
-    <t>MakerBot</t>
-  </si>
-  <si>
-    <t>Form</t>
-  </si>
-  <si>
-    <t>Cheong</t>
-  </si>
-  <si>
-    <t>Prusa mk3s</t>
-  </si>
-  <si>
-    <t>Tim Hoover</t>
-  </si>
-  <si>
-    <t>TAZ 5</t>
-  </si>
-  <si>
-    <t>ordered PETG</t>
-  </si>
-  <si>
-    <t>NONE</t>
-  </si>
-  <si>
-    <t>Lucas Warfield</t>
-  </si>
-  <si>
-    <t>Sindoh 3DWOX 1</t>
-  </si>
-  <si>
     <t>Jennifer Mellott</t>
   </si>
   <si>
-    <t>PLA, ordering PETG</t>
-  </si>
-  <si>
     <t>Matthew Price</t>
   </si>
   <si>
+    <t>MarkTWO1</t>
+  </si>
+  <si>
+    <t>Matthew Marsh - Borgwarner</t>
+  </si>
+  <si>
+    <t>MarkTWO2</t>
+  </si>
+  <si>
+    <t>MarkForge</t>
+  </si>
+  <si>
+    <t>Ben Albert</t>
+  </si>
+  <si>
+    <t>Monoplus</t>
+  </si>
+  <si>
+    <t>Matt Glaysher</t>
+  </si>
+  <si>
+    <t>David West</t>
+  </si>
+  <si>
+    <t>oneof30</t>
+  </si>
+  <si>
+    <t>gCreate - Anna and Gordon</t>
+  </si>
+  <si>
+    <t>Jon Cheetham</t>
+  </si>
+  <si>
+    <t>Christopher Battaglia</t>
+  </si>
+  <si>
+    <t>Makerbot</t>
+  </si>
+  <si>
+    <t>Yu Nong Khew + Alex Cornelius</t>
+  </si>
+  <si>
+    <t>Rei Lee</t>
+  </si>
+  <si>
+    <t>Jerome Fung</t>
+  </si>
+  <si>
+    <t>Sindoh</t>
+  </si>
+  <si>
+    <t>Meejin Yoon / Howeler &amp; Yoon Architecture</t>
+  </si>
+  <si>
+    <t>AAP NYC (Balder, Moyse, Au)</t>
+  </si>
+  <si>
+    <t>oneof10</t>
+  </si>
+  <si>
+    <t>KPF</t>
+  </si>
+  <si>
+    <t>Brian Thrash</t>
+  </si>
+  <si>
+    <t>Orion</t>
+  </si>
+  <si>
+    <t>Max</t>
+  </si>
+  <si>
+    <t>Timothy Weber</t>
+  </si>
+  <si>
+    <t>MAchine1</t>
+  </si>
+  <si>
+    <t>NYSCF</t>
+  </si>
+  <si>
+    <t>Machine2</t>
+  </si>
+  <si>
+    <t>Sara Hricik</t>
+  </si>
+  <si>
+    <t>Sean Kennedy</t>
+  </si>
+  <si>
+    <t>DUP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Michael Marsh - Borgwarner </t>
+  </si>
+  <si>
+    <t>James Fitch</t>
+  </si>
+  <si>
+    <t>Scott Brodrick</t>
+  </si>
+  <si>
+    <t>Burak Celik</t>
+  </si>
+  <si>
+    <t>Terrie and Michael Hunter</t>
+  </si>
+  <si>
+    <t>Unimaker</t>
+  </si>
+  <si>
+    <t>Ryan Logan</t>
+  </si>
+  <si>
+    <t>Lulzbot</t>
+  </si>
+  <si>
+    <t>Ann &amp; Craig / Future Firm</t>
+  </si>
+  <si>
+    <t>Haley Hahn</t>
+  </si>
+  <si>
+    <t>Marty Sullivan</t>
+  </si>
+  <si>
+    <t>Ultimakerx5</t>
+  </si>
+  <si>
+    <t>Bernardo Schuhmacher</t>
+  </si>
+  <si>
+    <t>S3x5</t>
+  </si>
+  <si>
+    <t>np</t>
+  </si>
+  <si>
+    <t>Makebot</t>
+  </si>
+  <si>
+    <t>Luke Keller</t>
+  </si>
+  <si>
+    <t>Pam Chueh</t>
+  </si>
+  <si>
+    <t>Deanna Kocher</t>
+  </si>
+  <si>
+    <t>Parker Miller &amp; Joe Skovira</t>
+  </si>
+  <si>
+    <t>Teva</t>
+  </si>
+  <si>
+    <t>Travis Buley</t>
+  </si>
+  <si>
+    <t>Kurt West / WESTWORKSHOP</t>
+  </si>
+  <si>
+    <t>Unimaker1</t>
+  </si>
+  <si>
+    <t>Niti Parikh/ MakerLAB @ CORNELL TECH</t>
+  </si>
+  <si>
+    <t>Unimaker2</t>
+  </si>
+  <si>
+    <t>Unimaker3</t>
+  </si>
+  <si>
+    <t>Anycubic</t>
+  </si>
+  <si>
+    <t>Mike Babcock</t>
+  </si>
+  <si>
+    <t>Sindwinder</t>
+  </si>
+  <si>
+    <t>Andy Irwin</t>
+  </si>
+  <si>
+    <t>Sindewinder</t>
+  </si>
+  <si>
+    <t>Aaron Zufall</t>
+  </si>
+  <si>
+    <t>Brian Barber</t>
+  </si>
+  <si>
+    <t>John Pasowicz</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>Iman Fayyad</t>
+  </si>
+  <si>
+    <t>Dremmel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STOSS Grace Jiranuntarat / Sonny Xu </t>
+  </si>
+  <si>
     <t>Ultimaker</t>
-  </si>
-  <si>
-    <t>MarkTWO1</t>
-  </si>
-  <si>
-    <t>Matthew Marsh - Borgwarner</t>
-  </si>
-  <si>
-    <t>Creality Ender 5 Plus, seemecnc Orion. Plastic milling/forming/fabrication shop</t>
-  </si>
-  <si>
-    <t>PLA, PETG on order</t>
-  </si>
-  <si>
-    <t>MarkTWO2</t>
-  </si>
-  <si>
-    <t>SeeMeCNC Rostock Max v3</t>
-  </si>
-  <si>
-    <t>PETG, PLA</t>
-  </si>
-  <si>
-    <t>MarkForge</t>
-  </si>
-  <si>
-    <t>Ben Albert</t>
-  </si>
-  <si>
-    <t>Monoprice Maker Select and Creality Ender 3 Pro</t>
-  </si>
-  <si>
-    <t>PLA, ABS</t>
-  </si>
-  <si>
-    <t>Monoplus</t>
-  </si>
-  <si>
-    <t>Matt Glaysher</t>
-  </si>
-  <si>
-    <t>Ender 3 Pro</t>
-  </si>
-  <si>
-    <t>David West</t>
-  </si>
-  <si>
-    <t>oneof30</t>
-  </si>
-  <si>
-    <t>gCreate - Anna and Gordon</t>
-  </si>
-  <si>
-    <t>Jon Cheetham</t>
-  </si>
-  <si>
-    <t>Monoprice Voxel / Prusa Original</t>
-  </si>
-  <si>
-    <t>2.5 kg PLA / 3 KG PLA &amp; 3 KG PETG ordered</t>
-  </si>
-  <si>
-    <t>Christopher Battaglia</t>
-  </si>
-  <si>
-    <t>Prusa i3 Mk3s</t>
-  </si>
-  <si>
-    <t>3 kg PLA</t>
-  </si>
-  <si>
-    <t>Makerbot</t>
-  </si>
-  <si>
-    <t>Yu Nong Khew + Alex Cornelius</t>
-  </si>
-  <si>
-    <t>Ultimaker 2+</t>
-  </si>
-  <si>
-    <t>2.85mm</t>
-  </si>
-  <si>
-    <t>Rei Lee</t>
-  </si>
-  <si>
-    <t>Lulzbot Taz6</t>
-  </si>
-  <si>
-    <t>Jerome Fung</t>
-  </si>
-  <si>
-    <t>Sindoh</t>
-  </si>
-  <si>
-    <t>Meejin Yoon / Howeler &amp; Yoon Architecture</t>
-  </si>
-  <si>
-    <t>MakerGear M2</t>
-  </si>
-  <si>
-    <t>PETG + Various</t>
-  </si>
-  <si>
-    <t>AAP NYC (Balder, Moyse, Au)</t>
-  </si>
-  <si>
-    <t>Ultimaker 3 Extended and S5 (5 of each)</t>
-  </si>
-  <si>
-    <t>PLA, PETG if necessary</t>
-  </si>
-  <si>
-    <t>MakeBot Replicator 2</t>
-  </si>
-  <si>
-    <t>oneof10</t>
-  </si>
-  <si>
-    <t>KPF</t>
-  </si>
-  <si>
-    <t>Brian Thrash</t>
-  </si>
-  <si>
-    <t>Orion</t>
-  </si>
-  <si>
-    <t>Prusa i3 MK3</t>
-  </si>
-  <si>
-    <t>Max</t>
-  </si>
-  <si>
-    <t>Timothy Weber</t>
-  </si>
-  <si>
-    <t>Prusa i3 MK3S</t>
-  </si>
-  <si>
-    <t>MAchine1</t>
-  </si>
-  <si>
-    <t>NYSCF</t>
-  </si>
-  <si>
-    <t>Machine2</t>
-  </si>
-  <si>
-    <t>Tevo Tornado</t>
-  </si>
-  <si>
-    <t>pla, ABS</t>
-  </si>
-  <si>
-    <t>Sara Hricik</t>
-  </si>
-  <si>
-    <t>PLA, HTPLA</t>
-  </si>
-  <si>
-    <t>Sean Kennedy</t>
-  </si>
-  <si>
-    <t>Ultimkaer/ 3, UM3, S5</t>
-  </si>
-  <si>
-    <t>2.85MM</t>
-  </si>
-  <si>
-    <t>PLA, PETG</t>
-  </si>
-  <si>
-    <t>DUP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Michael Marsh - Borgwarner </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Anycubic Photon S (115mmx65mmx165mm build volume) </t>
-  </si>
-  <si>
-    <t>James Fitch</t>
-  </si>
-  <si>
-    <t>Artillery/Evnovo Sidewinder X1  (300mm x 300mm x 400mm)</t>
-  </si>
-  <si>
-    <t>PLA, can print PETG</t>
-  </si>
-  <si>
-    <t>Scott Brodrick</t>
-  </si>
-  <si>
-    <t>Artillery/Evnovo Sidewinder X1 en route</t>
-  </si>
-  <si>
-    <t>Burak Celik</t>
-  </si>
-  <si>
-    <t>ultimaker um 3+</t>
-  </si>
-  <si>
-    <t>Terrie and Michael Hunter</t>
-  </si>
-  <si>
-    <t>Unimaker</t>
-  </si>
-  <si>
-    <t>Ryan Logan</t>
-  </si>
-  <si>
-    <t>Dremel/ Prusa/ Ultimaker</t>
-  </si>
-  <si>
-    <t>Lulzbot</t>
-  </si>
-  <si>
-    <t>Ann &amp; Craig / Future Firm</t>
-  </si>
-  <si>
-    <t>Ender3 and Duplicator i3</t>
-  </si>
-  <si>
-    <t>Haley Hahn</t>
-  </si>
-  <si>
-    <t>Dremel 3d45</t>
-  </si>
-  <si>
-    <t>eco-ABS, PLA</t>
-  </si>
-  <si>
-    <t>Marty Sullivan</t>
-  </si>
-  <si>
-    <t>Ultimakerx5</t>
-  </si>
-  <si>
-    <t>Bernardo Schuhmacher</t>
-  </si>
-  <si>
-    <t>MakerBot Replicator Z18</t>
-  </si>
-  <si>
-    <t>S3x5</t>
-  </si>
-  <si>
-    <t>np</t>
-  </si>
-  <si>
-    <t>Makebot</t>
-  </si>
-  <si>
-    <t>Luke Keller</t>
-  </si>
-  <si>
-    <t>Pam Chueh</t>
-  </si>
-  <si>
-    <t>Deanna Kocher</t>
-  </si>
-  <si>
-    <t>Parker Miller &amp; Joe Skovira</t>
-  </si>
-  <si>
-    <t>Teva</t>
-  </si>
-  <si>
-    <t>Travis Buley</t>
-  </si>
-  <si>
-    <t>Kurt West / WESTWORKSHOP</t>
-  </si>
-  <si>
-    <t>Unimaker1</t>
-  </si>
-  <si>
-    <t>Niti Parikh/ MakerLAB @ CORNELL TECH</t>
-  </si>
-  <si>
-    <t>Unimaker2</t>
-  </si>
-  <si>
-    <t>Unimaker3</t>
-  </si>
-  <si>
-    <t>Anycubic</t>
-  </si>
-  <si>
-    <t>Mike Babcock</t>
-  </si>
-  <si>
-    <t>Sindwinder</t>
-  </si>
-  <si>
-    <t>Andy Irwin</t>
-  </si>
-  <si>
-    <t>Sindewinder</t>
-  </si>
-  <si>
-    <t>Aaron Zufall</t>
-  </si>
-  <si>
-    <t>Brian Barber</t>
-  </si>
-  <si>
-    <t>John Pasowicz</t>
-  </si>
-  <si>
-    <t>None</t>
-  </si>
-  <si>
-    <t>Iman Fayyad</t>
-  </si>
-  <si>
-    <t>Dremmel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STOSS Grace Jiranuntarat / Sonny Xu </t>
   </si>
   <si>
     <t>Miles Merwin</t>
@@ -1192,10 +862,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L134"/>
+  <dimension ref="A1:I134"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1205,7 +875,7 @@
     <col min="9" max="9" width="9.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1216,10 +886,10 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>269</v>
+        <v>159</v>
       </c>
       <c r="E1" t="s">
-        <v>270</v>
+        <v>160</v>
       </c>
       <c r="F1" t="s">
         <v>3</v>
@@ -1234,7 +904,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -1259,8 +929,11 @@
       <c r="H2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="I2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -1285,8 +958,11 @@
       <c r="H3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="I3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -1311,8 +987,11 @@
       <c r="H4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="I4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -1337,8 +1016,11 @@
       <c r="H5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="I5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -1363,8 +1045,11 @@
       <c r="H6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="I6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -1389,8 +1074,11 @@
       <c r="H7" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="I7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -1415,8 +1103,11 @@
       <c r="H8" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="I8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -1441,8 +1132,11 @@
       <c r="H9" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="I9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -1467,22 +1161,16 @@
       <c r="H10" t="s">
         <v>9</v>
       </c>
-      <c r="J10" t="s">
+      <c r="I10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>19</v>
       </c>
-      <c r="K10" t="s">
+      <c r="B11" t="s">
         <v>20</v>
-      </c>
-      <c r="L10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" t="s">
-        <v>23</v>
       </c>
       <c r="C11">
         <v>20</v>
@@ -1502,13 +1190,16 @@
       <c r="H11" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="I11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C12">
         <v>12</v>
@@ -1528,196 +1219,190 @@
       <c r="H12" t="s">
         <v>9</v>
       </c>
-      <c r="J12" t="s">
-        <v>24</v>
-      </c>
-      <c r="K12" t="s">
-        <v>25</v>
-      </c>
-      <c r="L12" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="I12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>15</v>
       </c>
       <c r="B13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13">
+        <v>12</v>
+      </c>
+      <c r="D13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H13" t="s">
+        <v>9</v>
+      </c>
+      <c r="I13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14">
+        <v>12</v>
+      </c>
+      <c r="D14" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" t="s">
+        <v>9</v>
+      </c>
+      <c r="G14" t="s">
+        <v>9</v>
+      </c>
+      <c r="H14" t="s">
+        <v>9</v>
+      </c>
+      <c r="I14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
         <v>23</v>
       </c>
-      <c r="C13">
-        <v>12</v>
-      </c>
-      <c r="D13" t="s">
-        <v>9</v>
-      </c>
-      <c r="E13" t="s">
-        <v>10</v>
-      </c>
-      <c r="F13" t="s">
-        <v>9</v>
-      </c>
-      <c r="G13" t="s">
-        <v>9</v>
-      </c>
-      <c r="H13" t="s">
-        <v>9</v>
-      </c>
-      <c r="J13" t="s">
+      <c r="C15">
+        <v>12</v>
+      </c>
+      <c r="D15" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" t="s">
+        <v>9</v>
+      </c>
+      <c r="G15" t="s">
+        <v>9</v>
+      </c>
+      <c r="H15" t="s">
+        <v>9</v>
+      </c>
+      <c r="I15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16">
+        <v>12</v>
+      </c>
+      <c r="D16" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F16" t="s">
+        <v>9</v>
+      </c>
+      <c r="G16" t="s">
+        <v>9</v>
+      </c>
+      <c r="H16" t="s">
+        <v>10</v>
+      </c>
+      <c r="I16" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17">
+        <v>12</v>
+      </c>
+      <c r="D17" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" t="s">
+        <v>10</v>
+      </c>
+      <c r="F17" t="s">
+        <v>9</v>
+      </c>
+      <c r="G17" t="s">
+        <v>9</v>
+      </c>
+      <c r="H17" t="s">
+        <v>10</v>
+      </c>
+      <c r="I17" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
         <v>27</v>
       </c>
-      <c r="K13" t="s">
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18">
+        <v>12</v>
+      </c>
+      <c r="D18" t="s">
+        <v>9</v>
+      </c>
+      <c r="E18" t="s">
+        <v>10</v>
+      </c>
+      <c r="F18" t="s">
+        <v>9</v>
+      </c>
+      <c r="G18" t="s">
+        <v>9</v>
+      </c>
+      <c r="H18" t="s">
+        <v>10</v>
+      </c>
+      <c r="I18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
         <v>28</v>
       </c>
-      <c r="L13" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>30</v>
-      </c>
-      <c r="B14" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14">
-        <v>12</v>
-      </c>
-      <c r="D14" t="s">
-        <v>9</v>
-      </c>
-      <c r="E14" t="s">
-        <v>10</v>
-      </c>
-      <c r="F14" t="s">
-        <v>9</v>
-      </c>
-      <c r="G14" t="s">
-        <v>9</v>
-      </c>
-      <c r="H14" t="s">
-        <v>9</v>
-      </c>
-      <c r="J14" t="s">
-        <v>31</v>
-      </c>
-      <c r="K14" t="s">
-        <v>20</v>
-      </c>
-      <c r="L14" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>27</v>
-      </c>
-      <c r="B15" t="s">
-        <v>33</v>
-      </c>
-      <c r="C15">
-        <v>12</v>
-      </c>
-      <c r="D15" t="s">
-        <v>9</v>
-      </c>
-      <c r="E15" t="s">
-        <v>10</v>
-      </c>
-      <c r="F15" t="s">
-        <v>9</v>
-      </c>
-      <c r="G15" t="s">
-        <v>9</v>
-      </c>
-      <c r="H15" t="s">
-        <v>9</v>
-      </c>
-      <c r="J15" t="s">
-        <v>34</v>
-      </c>
-      <c r="K15" t="s">
-        <v>20</v>
-      </c>
-      <c r="L15" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>36</v>
-      </c>
-      <c r="B16" t="s">
-        <v>37</v>
-      </c>
-      <c r="C16">
-        <v>12</v>
-      </c>
-      <c r="D16" t="s">
-        <v>9</v>
-      </c>
-      <c r="E16" t="s">
-        <v>10</v>
-      </c>
-      <c r="F16" t="s">
-        <v>9</v>
-      </c>
-      <c r="G16" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>38</v>
-      </c>
-      <c r="B17" t="s">
-        <v>37</v>
-      </c>
-      <c r="C17">
-        <v>12</v>
-      </c>
-      <c r="D17" t="s">
-        <v>9</v>
-      </c>
-      <c r="E17" t="s">
-        <v>10</v>
-      </c>
-      <c r="F17" t="s">
-        <v>9</v>
-      </c>
-      <c r="G17" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>39</v>
-      </c>
-      <c r="B18" t="s">
-        <v>37</v>
-      </c>
-      <c r="C18">
-        <v>12</v>
-      </c>
-      <c r="D18" t="s">
-        <v>9</v>
-      </c>
-      <c r="E18" t="s">
-        <v>10</v>
-      </c>
-      <c r="F18" t="s">
-        <v>9</v>
-      </c>
-      <c r="G18" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>40</v>
-      </c>
       <c r="B19" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="C19">
         <v>12</v>
@@ -1734,22 +1419,19 @@
       <c r="G19" t="s">
         <v>9</v>
       </c>
-      <c r="J19" t="s">
-        <v>41</v>
-      </c>
-      <c r="K19" t="s">
-        <v>42</v>
-      </c>
-      <c r="L19" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="H19" t="s">
+        <v>10</v>
+      </c>
+      <c r="I19" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>14</v>
       </c>
       <c r="B20" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="C20">
         <v>12</v>
@@ -1766,13 +1448,19 @@
       <c r="G20" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="H20" t="s">
+        <v>10</v>
+      </c>
+      <c r="I20" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>15</v>
       </c>
       <c r="B21" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="C21">
         <v>12</v>
@@ -1789,22 +1477,19 @@
       <c r="G21" t="s">
         <v>9</v>
       </c>
-      <c r="J21" t="s">
-        <v>45</v>
-      </c>
-      <c r="K21" t="s">
-        <v>20</v>
-      </c>
-      <c r="L21" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="H21" t="s">
+        <v>10</v>
+      </c>
+      <c r="I21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="B22" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="C22">
         <v>6</v>
@@ -1824,13 +1509,16 @@
       <c r="H22" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="I22" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="B23" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="C23">
         <v>6</v>
@@ -1850,211 +1538,220 @@
       <c r="H23" t="s">
         <v>9</v>
       </c>
-      <c r="J23" t="s">
-        <v>50</v>
-      </c>
-      <c r="K23" t="s">
-        <v>20</v>
-      </c>
-      <c r="L23" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="I23" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>33</v>
+      </c>
+      <c r="C24">
+        <v>12</v>
+      </c>
+      <c r="D24" t="s">
+        <v>9</v>
+      </c>
+      <c r="E24" t="s">
+        <v>10</v>
+      </c>
+      <c r="F24" t="s">
+        <v>9</v>
+      </c>
+      <c r="G24" t="s">
+        <v>9</v>
+      </c>
+      <c r="H24" t="s">
+        <v>10</v>
+      </c>
+      <c r="I24" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
         <v>27</v>
       </c>
-      <c r="B24" t="s">
-        <v>52</v>
-      </c>
-      <c r="C24">
-        <v>12</v>
-      </c>
-      <c r="D24" t="s">
-        <v>9</v>
-      </c>
-      <c r="E24" t="s">
-        <v>10</v>
-      </c>
-      <c r="F24" t="s">
-        <v>9</v>
-      </c>
-      <c r="G24" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
+      <c r="B25" t="s">
+        <v>34</v>
+      </c>
+      <c r="C25">
+        <v>12</v>
+      </c>
+      <c r="D25" t="s">
+        <v>9</v>
+      </c>
+      <c r="E25" t="s">
+        <v>10</v>
+      </c>
+      <c r="F25" t="s">
+        <v>9</v>
+      </c>
+      <c r="G25" t="s">
+        <v>9</v>
+      </c>
+      <c r="H25" t="s">
+        <v>10</v>
+      </c>
+      <c r="I25" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>22</v>
+      </c>
+      <c r="B26" t="s">
+        <v>34</v>
+      </c>
+      <c r="C26">
+        <v>12</v>
+      </c>
+      <c r="D26" t="s">
+        <v>9</v>
+      </c>
+      <c r="E26" t="s">
+        <v>10</v>
+      </c>
+      <c r="F26" t="s">
+        <v>9</v>
+      </c>
+      <c r="G26" t="s">
+        <v>9</v>
+      </c>
+      <c r="H26" t="s">
+        <v>10</v>
+      </c>
+      <c r="I26" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>35</v>
+      </c>
+      <c r="B27" t="s">
+        <v>34</v>
+      </c>
+      <c r="C27">
+        <v>12</v>
+      </c>
+      <c r="D27" t="s">
+        <v>9</v>
+      </c>
+      <c r="E27" t="s">
+        <v>10</v>
+      </c>
+      <c r="F27" t="s">
+        <v>9</v>
+      </c>
+      <c r="G27" t="s">
+        <v>9</v>
+      </c>
+      <c r="H27" t="s">
+        <v>10</v>
+      </c>
+      <c r="I27" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28" t="s">
+        <v>34</v>
+      </c>
+      <c r="C28">
+        <v>12</v>
+      </c>
+      <c r="D28" t="s">
+        <v>9</v>
+      </c>
+      <c r="E28" t="s">
+        <v>10</v>
+      </c>
+      <c r="F28" t="s">
+        <v>9</v>
+      </c>
+      <c r="G28" t="s">
+        <v>9</v>
+      </c>
+      <c r="H28" t="s">
+        <v>10</v>
+      </c>
+      <c r="I28" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>37</v>
+      </c>
+      <c r="B29" t="s">
+        <v>34</v>
+      </c>
+      <c r="C29">
+        <v>12</v>
+      </c>
+      <c r="D29" t="s">
+        <v>9</v>
+      </c>
+      <c r="E29" t="s">
+        <v>10</v>
+      </c>
+      <c r="F29" t="s">
+        <v>9</v>
+      </c>
+      <c r="G29" t="s">
+        <v>9</v>
+      </c>
+      <c r="H29" t="s">
+        <v>10</v>
+      </c>
+      <c r="I29" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>38</v>
+      </c>
+      <c r="B30" t="s">
+        <v>34</v>
+      </c>
+      <c r="C30">
+        <v>12</v>
+      </c>
+      <c r="D30" t="s">
+        <v>9</v>
+      </c>
+      <c r="E30" t="s">
+        <v>10</v>
+      </c>
+      <c r="F30" t="s">
+        <v>9</v>
+      </c>
+      <c r="G30" t="s">
+        <v>9</v>
+      </c>
+      <c r="H30" t="s">
+        <v>10</v>
+      </c>
+      <c r="I30" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>27</v>
+      </c>
+      <c r="B31" t="s">
         <v>39</v>
       </c>
-      <c r="B25" t="s">
-        <v>53</v>
-      </c>
-      <c r="C25">
-        <v>12</v>
-      </c>
-      <c r="D25" t="s">
-        <v>9</v>
-      </c>
-      <c r="E25" t="s">
-        <v>10</v>
-      </c>
-      <c r="F25" t="s">
-        <v>9</v>
-      </c>
-      <c r="G25" t="s">
-        <v>9</v>
-      </c>
-      <c r="J25" t="s">
-        <v>54</v>
-      </c>
-      <c r="K25" t="s">
-        <v>20</v>
-      </c>
-      <c r="L25" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>27</v>
-      </c>
-      <c r="B26" t="s">
-        <v>53</v>
-      </c>
-      <c r="C26">
-        <v>12</v>
-      </c>
-      <c r="D26" t="s">
-        <v>9</v>
-      </c>
-      <c r="E26" t="s">
-        <v>10</v>
-      </c>
-      <c r="F26" t="s">
-        <v>9</v>
-      </c>
-      <c r="G26" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>56</v>
-      </c>
-      <c r="B27" t="s">
-        <v>53</v>
-      </c>
-      <c r="C27">
-        <v>12</v>
-      </c>
-      <c r="D27" t="s">
-        <v>9</v>
-      </c>
-      <c r="E27" t="s">
-        <v>10</v>
-      </c>
-      <c r="F27" t="s">
-        <v>9</v>
-      </c>
-      <c r="G27" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>57</v>
-      </c>
-      <c r="B28" t="s">
-        <v>53</v>
-      </c>
-      <c r="C28">
-        <v>12</v>
-      </c>
-      <c r="D28" t="s">
-        <v>9</v>
-      </c>
-      <c r="E28" t="s">
-        <v>10</v>
-      </c>
-      <c r="F28" t="s">
-        <v>9</v>
-      </c>
-      <c r="G28" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>58</v>
-      </c>
-      <c r="B29" t="s">
-        <v>53</v>
-      </c>
-      <c r="C29">
-        <v>12</v>
-      </c>
-      <c r="D29" t="s">
-        <v>9</v>
-      </c>
-      <c r="E29" t="s">
-        <v>10</v>
-      </c>
-      <c r="F29" t="s">
-        <v>9</v>
-      </c>
-      <c r="G29" t="s">
-        <v>9</v>
-      </c>
-      <c r="J29" t="s">
-        <v>59</v>
-      </c>
-      <c r="K29" t="s">
-        <v>20</v>
-      </c>
-      <c r="L29" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>61</v>
-      </c>
-      <c r="B30" t="s">
-        <v>53</v>
-      </c>
-      <c r="C30">
-        <v>12</v>
-      </c>
-      <c r="D30" t="s">
-        <v>9</v>
-      </c>
-      <c r="E30" t="s">
-        <v>10</v>
-      </c>
-      <c r="F30" t="s">
-        <v>9</v>
-      </c>
-      <c r="G30" t="s">
-        <v>9</v>
-      </c>
-      <c r="J30" t="s">
-        <v>62</v>
-      </c>
-      <c r="K30" t="s">
-        <v>63</v>
-      </c>
-      <c r="L30" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>39</v>
-      </c>
-      <c r="B31" t="s">
-        <v>65</v>
-      </c>
       <c r="C31">
         <v>12</v>
       </c>
@@ -2070,22 +1767,19 @@
       <c r="G31" t="s">
         <v>9</v>
       </c>
-      <c r="J31" t="s">
-        <v>66</v>
-      </c>
-      <c r="K31" t="s">
-        <v>20</v>
-      </c>
-      <c r="L31" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="H31" t="s">
+        <v>10</v>
+      </c>
+      <c r="I31" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>16</v>
       </c>
       <c r="B32" t="s">
-        <v>68</v>
+        <v>40</v>
       </c>
       <c r="C32">
         <v>12</v>
@@ -2102,13 +1796,19 @@
       <c r="G32" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="H32" t="s">
+        <v>10</v>
+      </c>
+      <c r="I32" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>17</v>
       </c>
       <c r="B33" t="s">
-        <v>68</v>
+        <v>40</v>
       </c>
       <c r="C33">
         <v>12</v>
@@ -2125,13 +1825,19 @@
       <c r="G33" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="H33" t="s">
+        <v>10</v>
+      </c>
+      <c r="I33" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>17</v>
       </c>
       <c r="B34" t="s">
-        <v>68</v>
+        <v>40</v>
       </c>
       <c r="C34">
         <v>12</v>
@@ -2148,112 +1854,106 @@
       <c r="G34" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="H34" t="s">
+        <v>10</v>
+      </c>
+      <c r="I34" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
+        <v>22</v>
+      </c>
+      <c r="B35" t="s">
+        <v>40</v>
+      </c>
+      <c r="C35">
+        <v>12</v>
+      </c>
+      <c r="D35" t="s">
+        <v>9</v>
+      </c>
+      <c r="E35" t="s">
+        <v>10</v>
+      </c>
+      <c r="F35" t="s">
+        <v>9</v>
+      </c>
+      <c r="G35" t="s">
+        <v>9</v>
+      </c>
+      <c r="H35" t="s">
+        <v>10</v>
+      </c>
+      <c r="I35" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>41</v>
+      </c>
+      <c r="B36" t="s">
+        <v>42</v>
+      </c>
+      <c r="C36">
+        <v>12</v>
+      </c>
+      <c r="D36" t="s">
+        <v>9</v>
+      </c>
+      <c r="E36" t="s">
+        <v>10</v>
+      </c>
+      <c r="F36" t="s">
+        <v>9</v>
+      </c>
+      <c r="G36" t="s">
+        <v>9</v>
+      </c>
+      <c r="H36" t="s">
+        <v>10</v>
+      </c>
+      <c r="I36" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>43</v>
+      </c>
+      <c r="B37" t="s">
+        <v>44</v>
+      </c>
+      <c r="C37">
+        <v>12</v>
+      </c>
+      <c r="D37" t="s">
+        <v>9</v>
+      </c>
+      <c r="E37" t="s">
+        <v>10</v>
+      </c>
+      <c r="F37" t="s">
+        <v>9</v>
+      </c>
+      <c r="G37" t="s">
+        <v>9</v>
+      </c>
+      <c r="H37" t="s">
+        <v>10</v>
+      </c>
+      <c r="I37" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
         <v>27</v>
       </c>
-      <c r="B35" t="s">
-        <v>68</v>
-      </c>
-      <c r="C35">
-        <v>12</v>
-      </c>
-      <c r="D35" t="s">
-        <v>9</v>
-      </c>
-      <c r="E35" t="s">
-        <v>10</v>
-      </c>
-      <c r="F35" t="s">
-        <v>9</v>
-      </c>
-      <c r="G35" t="s">
-        <v>9</v>
-      </c>
-      <c r="J35" t="s">
-        <v>69</v>
-      </c>
-      <c r="K35" t="s">
-        <v>20</v>
-      </c>
-      <c r="L35" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>71</v>
-      </c>
-      <c r="B36" t="s">
-        <v>72</v>
-      </c>
-      <c r="C36">
-        <v>12</v>
-      </c>
-      <c r="D36" t="s">
-        <v>9</v>
-      </c>
-      <c r="E36" t="s">
-        <v>10</v>
-      </c>
-      <c r="F36" t="s">
-        <v>9</v>
-      </c>
-      <c r="G36" t="s">
-        <v>9</v>
-      </c>
-      <c r="J36" t="s">
-        <v>73</v>
-      </c>
-      <c r="K36" t="s">
-        <v>20</v>
-      </c>
-      <c r="L36" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>74</v>
-      </c>
-      <c r="B37" t="s">
-        <v>75</v>
-      </c>
-      <c r="C37">
-        <v>12</v>
-      </c>
-      <c r="D37" t="s">
-        <v>9</v>
-      </c>
-      <c r="E37" t="s">
-        <v>10</v>
-      </c>
-      <c r="F37" t="s">
-        <v>9</v>
-      </c>
-      <c r="G37" t="s">
-        <v>9</v>
-      </c>
-      <c r="I37" t="s">
-        <v>9</v>
-      </c>
-      <c r="J37" t="s">
-        <v>27</v>
-      </c>
-      <c r="K37" t="s">
-        <v>20</v>
-      </c>
-      <c r="L37" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>39</v>
-      </c>
       <c r="B38" t="s">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="C38">
         <v>12</v>
@@ -2270,22 +1970,16 @@
       <c r="G38" t="s">
         <v>9</v>
       </c>
-      <c r="J38" t="s">
-        <v>27</v>
-      </c>
-      <c r="K38" t="s">
-        <v>20</v>
-      </c>
-      <c r="L38" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="H38" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>79</v>
+        <v>46</v>
       </c>
       <c r="B39" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
       <c r="C39">
         <v>12</v>
@@ -2302,22 +1996,19 @@
       <c r="G39" t="s">
         <v>9</v>
       </c>
-      <c r="J39" t="s">
-        <v>81</v>
-      </c>
-      <c r="K39" t="s">
-        <v>20</v>
-      </c>
-      <c r="L39" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="H39" t="s">
+        <v>10</v>
+      </c>
+      <c r="I39" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>14</v>
       </c>
       <c r="B40" t="s">
-        <v>83</v>
+        <v>48</v>
       </c>
       <c r="C40">
         <v>12</v>
@@ -2334,13 +2025,19 @@
       <c r="G40" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="H40" t="s">
+        <v>10</v>
+      </c>
+      <c r="I40" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>15</v>
       </c>
       <c r="B41" t="s">
-        <v>83</v>
+        <v>48</v>
       </c>
       <c r="C41">
         <v>12</v>
@@ -2357,13 +2054,19 @@
       <c r="G41" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="H41" t="s">
+        <v>10</v>
+      </c>
+      <c r="I41" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B42" t="s">
-        <v>83</v>
+        <v>48</v>
       </c>
       <c r="C42">
         <v>12</v>
@@ -2380,115 +2083,106 @@
       <c r="G42" t="s">
         <v>9</v>
       </c>
-      <c r="J42" t="s">
-        <v>69</v>
-      </c>
-      <c r="K42" t="s">
-        <v>20</v>
-      </c>
-      <c r="L42" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="H42" t="s">
+        <v>10</v>
+      </c>
+      <c r="I42" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
+        <v>22</v>
+      </c>
+      <c r="B43" t="s">
+        <v>49</v>
+      </c>
+      <c r="C43">
+        <v>12</v>
+      </c>
+      <c r="D43" t="s">
+        <v>9</v>
+      </c>
+      <c r="E43" t="s">
+        <v>10</v>
+      </c>
+      <c r="F43" t="s">
+        <v>9</v>
+      </c>
+      <c r="G43" t="s">
+        <v>9</v>
+      </c>
+      <c r="H43" t="s">
+        <v>10</v>
+      </c>
+      <c r="I43" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>50</v>
+      </c>
+      <c r="B44" t="s">
+        <v>51</v>
+      </c>
+      <c r="C44">
+        <v>12</v>
+      </c>
+      <c r="D44" t="s">
+        <v>9</v>
+      </c>
+      <c r="E44" t="s">
+        <v>10</v>
+      </c>
+      <c r="F44" t="s">
+        <v>9</v>
+      </c>
+      <c r="G44" t="s">
+        <v>9</v>
+      </c>
+      <c r="H44" t="s">
+        <v>10</v>
+      </c>
+      <c r="I44" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>52</v>
+      </c>
+      <c r="B45" t="s">
+        <v>51</v>
+      </c>
+      <c r="C45">
+        <v>12</v>
+      </c>
+      <c r="D45" t="s">
+        <v>9</v>
+      </c>
+      <c r="E45" t="s">
+        <v>10</v>
+      </c>
+      <c r="F45" t="s">
+        <v>9</v>
+      </c>
+      <c r="G45" t="s">
+        <v>9</v>
+      </c>
+      <c r="H45" t="s">
+        <v>10</v>
+      </c>
+      <c r="I45" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
         <v>27</v>
       </c>
-      <c r="B43" t="s">
-        <v>85</v>
-      </c>
-      <c r="C43">
-        <v>12</v>
-      </c>
-      <c r="D43" t="s">
-        <v>9</v>
-      </c>
-      <c r="E43" t="s">
-        <v>10</v>
-      </c>
-      <c r="F43" t="s">
-        <v>9</v>
-      </c>
-      <c r="G43" t="s">
-        <v>9</v>
-      </c>
-      <c r="J43" t="s">
-        <v>86</v>
-      </c>
-      <c r="K43" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
-        <v>87</v>
-      </c>
-      <c r="B44" t="s">
-        <v>88</v>
-      </c>
-      <c r="C44">
-        <v>12</v>
-      </c>
-      <c r="D44" t="s">
-        <v>9</v>
-      </c>
-      <c r="E44" t="s">
-        <v>10</v>
-      </c>
-      <c r="F44" t="s">
-        <v>9</v>
-      </c>
-      <c r="G44" t="s">
-        <v>9</v>
-      </c>
-      <c r="J44" t="s">
-        <v>69</v>
-      </c>
-      <c r="K44" t="s">
-        <v>63</v>
-      </c>
-      <c r="L44" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
-        <v>90</v>
-      </c>
-      <c r="B45" t="s">
-        <v>88</v>
-      </c>
-      <c r="C45">
-        <v>12</v>
-      </c>
-      <c r="D45" t="s">
-        <v>9</v>
-      </c>
-      <c r="E45" t="s">
-        <v>10</v>
-      </c>
-      <c r="F45" t="s">
-        <v>9</v>
-      </c>
-      <c r="G45" t="s">
-        <v>9</v>
-      </c>
-      <c r="J45" t="s">
-        <v>91</v>
-      </c>
-      <c r="K45" t="s">
-        <v>20</v>
-      </c>
-      <c r="L45" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>39</v>
-      </c>
       <c r="B46" t="s">
-        <v>93</v>
+        <v>53</v>
       </c>
       <c r="C46">
         <v>12</v>
@@ -2505,22 +2199,19 @@
       <c r="G46" t="s">
         <v>9</v>
       </c>
-      <c r="J46" t="s">
-        <v>94</v>
-      </c>
-      <c r="K46" t="s">
-        <v>20</v>
-      </c>
-      <c r="L46" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="H46" t="s">
+        <v>10</v>
+      </c>
+      <c r="I46" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>16</v>
       </c>
       <c r="B47" t="s">
-        <v>96</v>
+        <v>54</v>
       </c>
       <c r="C47">
         <v>12</v>
@@ -2537,13 +2228,19 @@
       <c r="G47" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="H47" t="s">
+        <v>10</v>
+      </c>
+      <c r="I47" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>17</v>
       </c>
       <c r="B48" t="s">
-        <v>96</v>
+        <v>54</v>
       </c>
       <c r="C48">
         <v>12</v>
@@ -2560,22 +2257,19 @@
       <c r="G48" t="s">
         <v>9</v>
       </c>
-      <c r="J48" t="s">
-        <v>69</v>
-      </c>
-      <c r="K48" t="s">
-        <v>63</v>
-      </c>
-      <c r="L48" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="H48" t="s">
+        <v>10</v>
+      </c>
+      <c r="I48" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>17</v>
       </c>
       <c r="B49" t="s">
-        <v>96</v>
+        <v>54</v>
       </c>
       <c r="C49">
         <v>12</v>
@@ -2592,179 +2286,164 @@
       <c r="G49" t="s">
         <v>9</v>
       </c>
-      <c r="J49" t="s">
+      <c r="H49" t="s">
+        <v>10</v>
+      </c>
+      <c r="I49" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>55</v>
+      </c>
+      <c r="B50" t="s">
+        <v>54</v>
+      </c>
+      <c r="C50">
+        <v>12</v>
+      </c>
+      <c r="D50" t="s">
+        <v>9</v>
+      </c>
+      <c r="E50" t="s">
+        <v>10</v>
+      </c>
+      <c r="F50" t="s">
+        <v>9</v>
+      </c>
+      <c r="G50" t="s">
+        <v>9</v>
+      </c>
+      <c r="H50" t="s">
+        <v>10</v>
+      </c>
+      <c r="I50" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>56</v>
+      </c>
+      <c r="B51" t="s">
+        <v>54</v>
+      </c>
+      <c r="C51">
+        <v>12</v>
+      </c>
+      <c r="D51" t="s">
+        <v>9</v>
+      </c>
+      <c r="E51" t="s">
+        <v>10</v>
+      </c>
+      <c r="F51" t="s">
+        <v>9</v>
+      </c>
+      <c r="G51" t="s">
+        <v>9</v>
+      </c>
+      <c r="H51" t="s">
+        <v>10</v>
+      </c>
+      <c r="I51" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>57</v>
+      </c>
+      <c r="B52" t="s">
+        <v>54</v>
+      </c>
+      <c r="C52">
+        <v>12</v>
+      </c>
+      <c r="D52" t="s">
+        <v>9</v>
+      </c>
+      <c r="E52" t="s">
+        <v>10</v>
+      </c>
+      <c r="F52" t="s">
+        <v>9</v>
+      </c>
+      <c r="G52" t="s">
+        <v>9</v>
+      </c>
+      <c r="H52" t="s">
+        <v>10</v>
+      </c>
+      <c r="I52" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>58</v>
+      </c>
+      <c r="B53" t="s">
+        <v>54</v>
+      </c>
+      <c r="C53">
+        <v>12</v>
+      </c>
+      <c r="D53" t="s">
+        <v>9</v>
+      </c>
+      <c r="E53" t="s">
+        <v>10</v>
+      </c>
+      <c r="F53" t="s">
+        <v>9</v>
+      </c>
+      <c r="G53" t="s">
+        <v>9</v>
+      </c>
+      <c r="H53" t="s">
+        <v>10</v>
+      </c>
+      <c r="I53" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>59</v>
+      </c>
+      <c r="B54" t="s">
+        <v>54</v>
+      </c>
+      <c r="C54">
+        <v>12</v>
+      </c>
+      <c r="D54" t="s">
+        <v>9</v>
+      </c>
+      <c r="E54" t="s">
+        <v>10</v>
+      </c>
+      <c r="F54" t="s">
+        <v>9</v>
+      </c>
+      <c r="G54" t="s">
+        <v>9</v>
+      </c>
+      <c r="H54" t="s">
+        <v>10</v>
+      </c>
+      <c r="I54" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
         <v>27</v>
       </c>
-      <c r="K49" t="s">
-        <v>63</v>
-      </c>
-      <c r="L49" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
-        <v>99</v>
-      </c>
-      <c r="B50" t="s">
-        <v>96</v>
-      </c>
-      <c r="C50">
-        <v>12</v>
-      </c>
-      <c r="D50" t="s">
-        <v>9</v>
-      </c>
-      <c r="E50" t="s">
-        <v>10</v>
-      </c>
-      <c r="F50" t="s">
-        <v>9</v>
-      </c>
-      <c r="G50" t="s">
-        <v>9</v>
-      </c>
-      <c r="J50" t="s">
-        <v>69</v>
-      </c>
-      <c r="K50" t="s">
-        <v>20</v>
-      </c>
-      <c r="L50" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
-        <v>100</v>
-      </c>
-      <c r="B51" t="s">
-        <v>96</v>
-      </c>
-      <c r="C51">
-        <v>12</v>
-      </c>
-      <c r="D51" t="s">
-        <v>9</v>
-      </c>
-      <c r="E51" t="s">
-        <v>10</v>
-      </c>
-      <c r="F51" t="s">
-        <v>9</v>
-      </c>
-      <c r="G51" t="s">
-        <v>9</v>
-      </c>
-      <c r="J51" t="s">
-        <v>101</v>
-      </c>
-      <c r="K51" t="s">
-        <v>20</v>
-      </c>
-      <c r="L51" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
-        <v>103</v>
-      </c>
-      <c r="B52" t="s">
-        <v>96</v>
-      </c>
-      <c r="C52">
-        <v>12</v>
-      </c>
-      <c r="D52" t="s">
-        <v>9</v>
-      </c>
-      <c r="E52" t="s">
-        <v>10</v>
-      </c>
-      <c r="F52" t="s">
-        <v>9</v>
-      </c>
-      <c r="G52" t="s">
-        <v>9</v>
-      </c>
-      <c r="J52" t="s">
-        <v>104</v>
-      </c>
-      <c r="K52">
-        <v>1.75</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
-        <v>105</v>
-      </c>
-      <c r="B53" t="s">
-        <v>96</v>
-      </c>
-      <c r="C53">
-        <v>12</v>
-      </c>
-      <c r="D53" t="s">
-        <v>9</v>
-      </c>
-      <c r="E53" t="s">
-        <v>10</v>
-      </c>
-      <c r="F53" t="s">
-        <v>9</v>
-      </c>
-      <c r="G53" t="s">
-        <v>9</v>
-      </c>
-      <c r="J53" t="s">
-        <v>69</v>
-      </c>
-      <c r="K53">
-        <v>1.75</v>
-      </c>
-      <c r="L53" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
-        <v>107</v>
-      </c>
-      <c r="B54" t="s">
-        <v>96</v>
-      </c>
-      <c r="C54">
-        <v>12</v>
-      </c>
-      <c r="D54" t="s">
-        <v>9</v>
-      </c>
-      <c r="E54" t="s">
-        <v>10</v>
-      </c>
-      <c r="F54" t="s">
-        <v>9</v>
-      </c>
-      <c r="G54" t="s">
-        <v>9</v>
-      </c>
-      <c r="J54" t="s">
-        <v>108</v>
-      </c>
-      <c r="K54" t="s">
-        <v>20</v>
-      </c>
-      <c r="L54" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
-        <v>39</v>
-      </c>
       <c r="B55" t="s">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="C55">
         <v>12</v>
@@ -2781,19 +2460,19 @@
       <c r="G55" t="s">
         <v>9</v>
       </c>
-      <c r="J55" t="s">
-        <v>69</v>
-      </c>
-      <c r="K55" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="H55" t="s">
+        <v>10</v>
+      </c>
+      <c r="I55" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>112</v>
+        <v>61</v>
       </c>
       <c r="B56" t="s">
-        <v>113</v>
+        <v>62</v>
       </c>
       <c r="C56">
         <v>6</v>
@@ -2813,19 +2492,16 @@
       <c r="H56" t="s">
         <v>9</v>
       </c>
-      <c r="J56" t="s">
-        <v>114</v>
-      </c>
-      <c r="K56" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="I56" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>112</v>
+        <v>61</v>
       </c>
       <c r="B57" t="s">
-        <v>116</v>
+        <v>63</v>
       </c>
       <c r="C57">
         <v>6</v>
@@ -2848,22 +2524,13 @@
       <c r="I57" t="s">
         <v>9</v>
       </c>
-      <c r="J57" t="s">
-        <v>54</v>
-      </c>
-      <c r="K57" t="s">
-        <v>20</v>
-      </c>
-      <c r="L57" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="B58" t="s">
-        <v>118</v>
+        <v>64</v>
       </c>
       <c r="C58">
         <v>8</v>
@@ -2880,13 +2547,19 @@
       <c r="G58" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="H58" t="s">
+        <v>10</v>
+      </c>
+      <c r="I58" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B59" t="s">
-        <v>119</v>
+        <v>65</v>
       </c>
       <c r="C59">
         <v>8</v>
@@ -2903,16 +2576,19 @@
       <c r="G59" t="s">
         <v>9</v>
       </c>
-      <c r="J59" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="H59" t="s">
+        <v>10</v>
+      </c>
+      <c r="I59" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="B60" t="s">
-        <v>121</v>
+        <v>66</v>
       </c>
       <c r="C60">
         <v>12</v>
@@ -2929,13 +2605,19 @@
       <c r="G60" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="H60" t="s">
+        <v>10</v>
+      </c>
+      <c r="I60" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="B61" t="s">
-        <v>122</v>
+        <v>67</v>
       </c>
       <c r="C61">
         <v>12</v>
@@ -2952,22 +2634,19 @@
       <c r="G61" t="s">
         <v>9</v>
       </c>
-      <c r="J61" t="s">
-        <v>123</v>
-      </c>
-      <c r="K61" t="s">
-        <v>20</v>
-      </c>
-      <c r="L61" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="H61" t="s">
+        <v>10</v>
+      </c>
+      <c r="I61" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>125</v>
+        <v>68</v>
       </c>
       <c r="B62" t="s">
-        <v>126</v>
+        <v>69</v>
       </c>
       <c r="C62">
         <v>12</v>
@@ -2984,22 +2663,19 @@
       <c r="G62" t="s">
         <v>9</v>
       </c>
-      <c r="J62" t="s">
-        <v>69</v>
-      </c>
-      <c r="K62" t="s">
-        <v>20</v>
-      </c>
-      <c r="L62" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="H62" t="s">
+        <v>10</v>
+      </c>
+      <c r="I62" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="B63" t="s">
-        <v>128</v>
+        <v>70</v>
       </c>
       <c r="C63">
         <v>12</v>
@@ -3016,22 +2692,19 @@
       <c r="G63" t="s">
         <v>9</v>
       </c>
-      <c r="J63" t="s">
-        <v>129</v>
-      </c>
-      <c r="K63" t="s">
-        <v>130</v>
-      </c>
-      <c r="L63" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="H63" t="s">
+        <v>10</v>
+      </c>
+      <c r="I63" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="B64" t="s">
-        <v>128</v>
+        <v>70</v>
       </c>
       <c r="C64">
         <v>12</v>
@@ -3048,22 +2721,19 @@
       <c r="G64" t="s">
         <v>9</v>
       </c>
-      <c r="J64" t="s">
-        <v>69</v>
-      </c>
-      <c r="K64" t="s">
-        <v>20</v>
-      </c>
-      <c r="L64" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="H64" t="s">
+        <v>10</v>
+      </c>
+      <c r="I64" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="B65" t="s">
-        <v>128</v>
+        <v>70</v>
       </c>
       <c r="C65">
         <v>12</v>
@@ -3080,83 +2750,77 @@
       <c r="G65" t="s">
         <v>9</v>
       </c>
-      <c r="J65" t="s">
-        <v>133</v>
-      </c>
-      <c r="K65" t="s">
-        <v>20</v>
-      </c>
-      <c r="L65" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="H65" t="s">
+        <v>10</v>
+      </c>
+      <c r="I65" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
+        <v>22</v>
+      </c>
+      <c r="B66" t="s">
+        <v>71</v>
+      </c>
+      <c r="C66">
+        <v>12</v>
+      </c>
+      <c r="D66" t="s">
+        <v>9</v>
+      </c>
+      <c r="E66" t="s">
+        <v>10</v>
+      </c>
+      <c r="F66" t="s">
+        <v>9</v>
+      </c>
+      <c r="G66" t="s">
+        <v>9</v>
+      </c>
+      <c r="H66" t="s">
+        <v>10</v>
+      </c>
+      <c r="I66" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>72</v>
+      </c>
+      <c r="B67" t="s">
+        <v>71</v>
+      </c>
+      <c r="C67">
+        <v>12</v>
+      </c>
+      <c r="D67" t="s">
+        <v>9</v>
+      </c>
+      <c r="E67" t="s">
+        <v>10</v>
+      </c>
+      <c r="F67" t="s">
+        <v>9</v>
+      </c>
+      <c r="G67" t="s">
+        <v>9</v>
+      </c>
+      <c r="H67" t="s">
+        <v>10</v>
+      </c>
+      <c r="I67" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
         <v>27</v>
       </c>
-      <c r="B66" t="s">
-        <v>135</v>
-      </c>
-      <c r="C66">
-        <v>12</v>
-      </c>
-      <c r="D66" t="s">
-        <v>9</v>
-      </c>
-      <c r="E66" t="s">
-        <v>10</v>
-      </c>
-      <c r="F66" t="s">
-        <v>9</v>
-      </c>
-      <c r="G66" t="s">
-        <v>9</v>
-      </c>
-      <c r="J66" t="s">
-        <v>136</v>
-      </c>
-      <c r="L66" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A67" t="s">
-        <v>138</v>
-      </c>
-      <c r="B67" t="s">
-        <v>135</v>
-      </c>
-      <c r="C67">
-        <v>12</v>
-      </c>
-      <c r="D67" t="s">
-        <v>9</v>
-      </c>
-      <c r="E67" t="s">
-        <v>10</v>
-      </c>
-      <c r="F67" t="s">
-        <v>9</v>
-      </c>
-      <c r="G67" t="s">
-        <v>9</v>
-      </c>
-      <c r="J67" t="s">
-        <v>139</v>
-      </c>
-      <c r="K67" t="s">
-        <v>20</v>
-      </c>
-      <c r="L67" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A68" t="s">
-        <v>39</v>
-      </c>
       <c r="B68" t="s">
-        <v>141</v>
+        <v>73</v>
       </c>
       <c r="C68">
         <v>12</v>
@@ -3173,19 +2837,19 @@
       <c r="G68" t="s">
         <v>9</v>
       </c>
-      <c r="J68" t="s">
-        <v>142</v>
-      </c>
-      <c r="K68" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="H68" t="s">
+        <v>10</v>
+      </c>
+      <c r="I68" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>143</v>
+        <v>74</v>
       </c>
       <c r="B69" t="s">
-        <v>144</v>
+        <v>75</v>
       </c>
       <c r="C69">
         <v>12</v>
@@ -3202,16 +2866,19 @@
       <c r="G69" t="s">
         <v>9</v>
       </c>
-      <c r="J69" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="H69" t="s">
+        <v>10</v>
+      </c>
+      <c r="I69" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="B70" t="s">
-        <v>146</v>
+        <v>76</v>
       </c>
       <c r="C70">
         <v>12</v>
@@ -3228,76 +2895,106 @@
       <c r="G70" t="s">
         <v>9</v>
       </c>
-      <c r="J70" t="s">
-        <v>147</v>
-      </c>
-      <c r="L70" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="H70" t="s">
+        <v>10</v>
+      </c>
+      <c r="I70" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>149</v>
+        <v>77</v>
       </c>
       <c r="B71" t="s">
-        <v>150</v>
+        <v>78</v>
       </c>
       <c r="C71">
         <v>0</v>
       </c>
-      <c r="J71" t="s">
-        <v>151</v>
-      </c>
-      <c r="L71" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="D71" t="s">
+        <v>10</v>
+      </c>
+      <c r="E71" t="s">
+        <v>10</v>
+      </c>
+      <c r="F71" t="s">
+        <v>10</v>
+      </c>
+      <c r="G71" t="s">
+        <v>10</v>
+      </c>
+      <c r="H71" t="s">
+        <v>10</v>
+      </c>
+      <c r="I71" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>120</v>
+        <v>79</v>
       </c>
       <c r="B72" t="s">
-        <v>152</v>
+        <v>80</v>
       </c>
       <c r="C72">
         <v>0</v>
       </c>
-      <c r="J72" t="s">
-        <v>142</v>
-      </c>
-      <c r="K72" t="s">
-        <v>20</v>
-      </c>
-      <c r="L72" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="D72" t="s">
+        <v>9</v>
+      </c>
+      <c r="E72" t="s">
+        <v>10</v>
+      </c>
+      <c r="F72" t="s">
+        <v>10</v>
+      </c>
+      <c r="G72" t="s">
+        <v>10</v>
+      </c>
+      <c r="H72" t="s">
+        <v>10</v>
+      </c>
+      <c r="I72" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>149</v>
+        <v>77</v>
       </c>
       <c r="B73" t="s">
-        <v>154</v>
+        <v>81</v>
       </c>
       <c r="C73">
         <v>0</v>
       </c>
-      <c r="J73" t="s">
-        <v>155</v>
-      </c>
-      <c r="K73">
-        <v>2.85</v>
-      </c>
-      <c r="L73" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="D73" t="s">
+        <v>9</v>
+      </c>
+      <c r="E73" t="s">
+        <v>10</v>
+      </c>
+      <c r="F73" t="s">
+        <v>10</v>
+      </c>
+      <c r="G73" t="s">
+        <v>10</v>
+      </c>
+      <c r="H73" t="s">
+        <v>10</v>
+      </c>
+      <c r="I73" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>156</v>
+        <v>82</v>
       </c>
       <c r="B74" t="s">
-        <v>157</v>
+        <v>83</v>
       </c>
       <c r="C74">
         <v>6</v>
@@ -3314,22 +3011,19 @@
       <c r="G74" t="s">
         <v>9</v>
       </c>
-      <c r="J74" t="s">
-        <v>158</v>
-      </c>
-      <c r="K74">
-        <v>1.75</v>
-      </c>
-      <c r="L74" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="H74" t="s">
+        <v>10</v>
+      </c>
+      <c r="I74" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>160</v>
+        <v>84</v>
       </c>
       <c r="B75" t="s">
-        <v>157</v>
+        <v>83</v>
       </c>
       <c r="C75">
         <v>6</v>
@@ -3346,22 +3040,19 @@
       <c r="G75" t="s">
         <v>9</v>
       </c>
-      <c r="J75" t="s">
-        <v>161</v>
-      </c>
-      <c r="K75">
-        <v>1.75</v>
-      </c>
-      <c r="L75" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="H75" t="s">
+        <v>10</v>
+      </c>
+      <c r="I75" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>163</v>
+        <v>85</v>
       </c>
       <c r="B76" t="s">
-        <v>157</v>
+        <v>83</v>
       </c>
       <c r="C76">
         <v>6</v>
@@ -3378,16 +3069,19 @@
       <c r="G76" t="s">
         <v>9</v>
       </c>
-      <c r="K76" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="H76" t="s">
+        <v>10</v>
+      </c>
+      <c r="I76" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="B77" t="s">
-        <v>164</v>
+        <v>86</v>
       </c>
       <c r="C77">
         <v>12</v>
@@ -3404,22 +3098,19 @@
       <c r="G77" t="s">
         <v>9</v>
       </c>
-      <c r="J77" t="s">
-        <v>165</v>
-      </c>
-      <c r="K77">
-        <v>1.75</v>
-      </c>
-      <c r="L77" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="H77" t="s">
+        <v>10</v>
+      </c>
+      <c r="I77" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>167</v>
+        <v>87</v>
       </c>
       <c r="B78" t="s">
-        <v>168</v>
+        <v>88</v>
       </c>
       <c r="C78">
         <v>12</v>
@@ -3436,16 +3127,19 @@
       <c r="G78" t="s">
         <v>9</v>
       </c>
-      <c r="J78" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="H78" t="s">
+        <v>10</v>
+      </c>
+      <c r="I78" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="B79" t="s">
-        <v>170</v>
+        <v>89</v>
       </c>
       <c r="C79">
         <v>12</v>
@@ -3462,13 +3156,19 @@
       <c r="G79" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="H79" t="s">
+        <v>10</v>
+      </c>
+      <c r="I79" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>171</v>
+        <v>90</v>
       </c>
       <c r="B80" t="s">
-        <v>172</v>
+        <v>91</v>
       </c>
       <c r="C80">
         <v>300</v>
@@ -3485,74 +3185,77 @@
       <c r="G80" t="s">
         <v>9</v>
       </c>
-      <c r="J80" t="s">
-        <v>129</v>
-      </c>
-      <c r="K80" t="s">
-        <v>20</v>
-      </c>
-      <c r="L80" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="H80" t="s">
+        <v>10</v>
+      </c>
+      <c r="I80" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>149</v>
+        <v>77</v>
       </c>
       <c r="B81" t="s">
-        <v>173</v>
+        <v>92</v>
       </c>
       <c r="C81">
         <v>0</v>
       </c>
-      <c r="J81" t="s">
-        <v>174</v>
-      </c>
-      <c r="K81" t="s">
-        <v>20</v>
-      </c>
-      <c r="L81" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="D81" t="s">
+        <v>9</v>
+      </c>
+      <c r="E81" t="s">
+        <v>10</v>
+      </c>
+      <c r="F81" t="s">
+        <v>10</v>
+      </c>
+      <c r="G81" t="s">
+        <v>10</v>
+      </c>
+      <c r="H81" t="s">
+        <v>10</v>
+      </c>
+      <c r="I81" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
+        <v>22</v>
+      </c>
+      <c r="B82" t="s">
+        <v>93</v>
+      </c>
+      <c r="C82">
+        <v>12</v>
+      </c>
+      <c r="D82" t="s">
+        <v>9</v>
+      </c>
+      <c r="E82" t="s">
+        <v>10</v>
+      </c>
+      <c r="F82" t="s">
+        <v>9</v>
+      </c>
+      <c r="G82" t="s">
+        <v>9</v>
+      </c>
+      <c r="H82" t="s">
+        <v>10</v>
+      </c>
+      <c r="I82" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
         <v>27</v>
       </c>
-      <c r="B82" t="s">
-        <v>176</v>
-      </c>
-      <c r="C82">
-        <v>12</v>
-      </c>
-      <c r="D82" t="s">
-        <v>9</v>
-      </c>
-      <c r="E82" t="s">
-        <v>10</v>
-      </c>
-      <c r="F82" t="s">
-        <v>9</v>
-      </c>
-      <c r="G82" t="s">
-        <v>9</v>
-      </c>
-      <c r="J82" t="s">
-        <v>177</v>
-      </c>
-      <c r="K82" t="s">
-        <v>20</v>
-      </c>
-      <c r="L82" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A83" t="s">
-        <v>39</v>
-      </c>
       <c r="B83" t="s">
-        <v>176</v>
+        <v>93</v>
       </c>
       <c r="C83">
         <v>12</v>
@@ -3569,13 +3272,19 @@
       <c r="G83" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="H83" t="s">
+        <v>10</v>
+      </c>
+      <c r="I83" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>179</v>
+        <v>94</v>
       </c>
       <c r="B84" t="s">
-        <v>180</v>
+        <v>95</v>
       </c>
       <c r="C84">
         <v>12</v>
@@ -3592,22 +3301,19 @@
       <c r="G84" t="s">
         <v>9</v>
       </c>
-      <c r="J84" t="s">
-        <v>181</v>
-      </c>
-      <c r="K84" t="s">
-        <v>182</v>
-      </c>
-      <c r="L84" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="H84" t="s">
+        <v>10</v>
+      </c>
+      <c r="I84" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B85" t="s">
-        <v>183</v>
+        <v>96</v>
       </c>
       <c r="C85">
         <v>12</v>
@@ -3624,22 +3330,19 @@
       <c r="G85" t="s">
         <v>9</v>
       </c>
-      <c r="J85" t="s">
-        <v>184</v>
-      </c>
-      <c r="K85" t="s">
-        <v>182</v>
-      </c>
-      <c r="L85" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="H85" t="s">
+        <v>10</v>
+      </c>
+      <c r="I85" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>120</v>
+        <v>79</v>
       </c>
       <c r="B86" t="s">
-        <v>185</v>
+        <v>97</v>
       </c>
       <c r="C86">
         <v>12</v>
@@ -3656,22 +3359,19 @@
       <c r="G86" t="s">
         <v>9</v>
       </c>
-      <c r="J86" t="s">
-        <v>169</v>
-      </c>
-      <c r="K86" t="s">
-        <v>63</v>
-      </c>
-      <c r="L86" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="H86" t="s">
+        <v>10</v>
+      </c>
+      <c r="I86" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>186</v>
+        <v>98</v>
       </c>
       <c r="B87" t="s">
-        <v>187</v>
+        <v>99</v>
       </c>
       <c r="C87">
         <v>12</v>
@@ -3688,22 +3388,19 @@
       <c r="G87" t="s">
         <v>9</v>
       </c>
-      <c r="J87" t="s">
-        <v>188</v>
-      </c>
-      <c r="K87" t="s">
-        <v>20</v>
-      </c>
-      <c r="L87" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="H87" t="s">
+        <v>10</v>
+      </c>
+      <c r="I87" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>7</v>
       </c>
       <c r="B88" t="s">
-        <v>190</v>
+        <v>100</v>
       </c>
       <c r="C88">
         <v>12</v>
@@ -3720,22 +3417,19 @@
       <c r="G88" t="s">
         <v>9</v>
       </c>
-      <c r="J88" t="s">
-        <v>191</v>
-      </c>
-      <c r="K88">
-        <v>2.85</v>
-      </c>
-      <c r="L88" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="H88" t="s">
+        <v>10</v>
+      </c>
+      <c r="I88" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>11</v>
       </c>
       <c r="B89" t="s">
-        <v>190</v>
+        <v>100</v>
       </c>
       <c r="C89">
         <v>12</v>
@@ -3752,22 +3446,19 @@
       <c r="G89" t="s">
         <v>9</v>
       </c>
-      <c r="J89" t="s">
-        <v>193</v>
-      </c>
-      <c r="K89" t="s">
-        <v>20</v>
-      </c>
-      <c r="L89" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="H89" t="s">
+        <v>10</v>
+      </c>
+      <c r="I89" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>194</v>
+        <v>101</v>
       </c>
       <c r="B90" t="s">
-        <v>195</v>
+        <v>102</v>
       </c>
       <c r="C90">
         <v>120</v>
@@ -3778,16 +3469,25 @@
       <c r="E90" t="s">
         <v>9</v>
       </c>
+      <c r="F90" t="s">
+        <v>10</v>
+      </c>
       <c r="G90" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="H90" t="s">
+        <v>10</v>
+      </c>
+      <c r="I90" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>16</v>
       </c>
       <c r="B91" t="s">
-        <v>196</v>
+        <v>103</v>
       </c>
       <c r="C91">
         <v>12</v>
@@ -3804,13 +3504,19 @@
       <c r="G91" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="H91" t="s">
+        <v>10</v>
+      </c>
+      <c r="I91" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>197</v>
+        <v>104</v>
       </c>
       <c r="B92" t="s">
-        <v>196</v>
+        <v>103</v>
       </c>
       <c r="C92">
         <v>12</v>
@@ -3827,22 +3533,19 @@
       <c r="G92" t="s">
         <v>9</v>
       </c>
-      <c r="J92" t="s">
-        <v>198</v>
-      </c>
-      <c r="K92" t="s">
-        <v>20</v>
-      </c>
-      <c r="L92" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="H92" t="s">
+        <v>10</v>
+      </c>
+      <c r="I92" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>199</v>
+        <v>105</v>
       </c>
       <c r="B93" t="s">
-        <v>200</v>
+        <v>106</v>
       </c>
       <c r="C93">
         <v>12</v>
@@ -3859,22 +3562,19 @@
       <c r="G93" t="s">
         <v>9</v>
       </c>
-      <c r="J93" t="s">
-        <v>201</v>
-      </c>
-      <c r="K93" t="s">
-        <v>20</v>
-      </c>
-      <c r="L93" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="H93" t="s">
+        <v>10</v>
+      </c>
+      <c r="I93" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>202</v>
+        <v>107</v>
       </c>
       <c r="B94" t="s">
-        <v>203</v>
+        <v>108</v>
       </c>
       <c r="C94">
         <v>12</v>
@@ -3891,13 +3591,19 @@
       <c r="G94" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="H94" t="s">
+        <v>10</v>
+      </c>
+      <c r="I94" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>204</v>
+        <v>109</v>
       </c>
       <c r="B95" t="s">
-        <v>203</v>
+        <v>108</v>
       </c>
       <c r="C95">
         <v>12</v>
@@ -3914,22 +3620,19 @@
       <c r="G95" t="s">
         <v>9</v>
       </c>
-      <c r="J95" t="s">
-        <v>205</v>
-      </c>
-      <c r="K95" t="s">
-        <v>20</v>
-      </c>
-      <c r="L95" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="H95" t="s">
+        <v>10</v>
+      </c>
+      <c r="I95" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="B96" t="s">
-        <v>207</v>
+        <v>110</v>
       </c>
       <c r="C96">
         <v>12</v>
@@ -3946,16 +3649,19 @@
       <c r="G96" t="s">
         <v>9</v>
       </c>
+      <c r="H96" t="s">
+        <v>10</v>
+      </c>
       <c r="I96" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B97" t="s">
-        <v>207</v>
+        <v>110</v>
       </c>
       <c r="C97">
         <v>12</v>
@@ -3972,25 +3678,19 @@
       <c r="G97" t="s">
         <v>9</v>
       </c>
+      <c r="H97" t="s">
+        <v>10</v>
+      </c>
       <c r="I97" t="s">
         <v>9</v>
       </c>
-      <c r="J97" t="s">
-        <v>198</v>
-      </c>
-      <c r="K97" t="s">
-        <v>20</v>
-      </c>
-      <c r="L97" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>16</v>
       </c>
       <c r="B98" t="s">
-        <v>209</v>
+        <v>111</v>
       </c>
       <c r="C98">
         <v>12</v>
@@ -4007,107 +3707,107 @@
       <c r="G98" t="s">
         <v>9</v>
       </c>
-      <c r="J98" t="s">
-        <v>210</v>
-      </c>
-      <c r="K98" t="s">
-        <v>211</v>
-      </c>
-      <c r="L98" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="H98" t="s">
+        <v>10</v>
+      </c>
+      <c r="I98" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>213</v>
+        <v>112</v>
       </c>
       <c r="B99" t="s">
-        <v>214</v>
+        <v>113</v>
       </c>
       <c r="C99">
         <v>0</v>
       </c>
-      <c r="J99" t="s">
-        <v>215</v>
-      </c>
-      <c r="K99" t="s">
+      <c r="D99" t="s">
+        <v>9</v>
+      </c>
+      <c r="E99" t="s">
+        <v>10</v>
+      </c>
+      <c r="F99" t="s">
+        <v>10</v>
+      </c>
+      <c r="G99" t="s">
+        <v>10</v>
+      </c>
+      <c r="H99" t="s">
+        <v>10</v>
+      </c>
+      <c r="I99" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>36</v>
+      </c>
+      <c r="B100" t="s">
+        <v>114</v>
+      </c>
+      <c r="C100">
+        <v>12</v>
+      </c>
+      <c r="D100" t="s">
+        <v>9</v>
+      </c>
+      <c r="E100" t="s">
+        <v>10</v>
+      </c>
+      <c r="F100" t="s">
+        <v>9</v>
+      </c>
+      <c r="G100" t="s">
+        <v>9</v>
+      </c>
+      <c r="H100" t="s">
+        <v>10</v>
+      </c>
+      <c r="I100" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>87</v>
+      </c>
+      <c r="B101" t="s">
         <v>115</v>
       </c>
-      <c r="L99" t="s">
+      <c r="C101">
+        <v>12</v>
+      </c>
+      <c r="D101" t="s">
+        <v>9</v>
+      </c>
+      <c r="E101" t="s">
+        <v>10</v>
+      </c>
+      <c r="F101" t="s">
+        <v>9</v>
+      </c>
+      <c r="G101" t="s">
+        <v>9</v>
+      </c>
+      <c r="H101" t="s">
+        <v>10</v>
+      </c>
+      <c r="I101" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>22</v>
+      </c>
+      <c r="B102" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A100" t="s">
-        <v>57</v>
-      </c>
-      <c r="B100" t="s">
-        <v>216</v>
-      </c>
-      <c r="C100">
-        <v>12</v>
-      </c>
-      <c r="D100" t="s">
-        <v>9</v>
-      </c>
-      <c r="E100" t="s">
-        <v>10</v>
-      </c>
-      <c r="F100" t="s">
-        <v>9</v>
-      </c>
-      <c r="G100" t="s">
-        <v>9</v>
-      </c>
-      <c r="J100" t="s">
-        <v>217</v>
-      </c>
-      <c r="K100" t="s">
-        <v>20</v>
-      </c>
-      <c r="L100" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A101" t="s">
-        <v>167</v>
-      </c>
-      <c r="B101" t="s">
-        <v>219</v>
-      </c>
-      <c r="C101">
-        <v>12</v>
-      </c>
-      <c r="D101" t="s">
-        <v>9</v>
-      </c>
-      <c r="E101" t="s">
-        <v>10</v>
-      </c>
-      <c r="F101" t="s">
-        <v>9</v>
-      </c>
-      <c r="G101" t="s">
-        <v>9</v>
-      </c>
-      <c r="J101" t="s">
-        <v>220</v>
-      </c>
-      <c r="K101" t="s">
-        <v>20</v>
-      </c>
-      <c r="L101" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A102" t="s">
-        <v>27</v>
-      </c>
-      <c r="B102" t="s">
-        <v>219</v>
-      </c>
       <c r="C102">
         <v>12</v>
       </c>
@@ -4123,13 +3823,19 @@
       <c r="G102" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="H102" t="s">
+        <v>10</v>
+      </c>
+      <c r="I102" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B103" t="s">
-        <v>221</v>
+        <v>116</v>
       </c>
       <c r="C103">
         <v>12</v>
@@ -4146,33 +3852,48 @@
       <c r="G103" t="s">
         <v>9</v>
       </c>
-      <c r="J103" t="s">
-        <v>222</v>
-      </c>
-      <c r="K103">
-        <v>1.75</v>
-      </c>
-      <c r="L103" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="H103" t="s">
+        <v>10</v>
+      </c>
+      <c r="I103" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>149</v>
+        <v>77</v>
       </c>
       <c r="B104" t="s">
-        <v>223</v>
+        <v>117</v>
       </c>
       <c r="C104">
         <v>0</v>
       </c>
-    </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="D104" t="s">
+        <v>9</v>
+      </c>
+      <c r="E104" t="s">
+        <v>10</v>
+      </c>
+      <c r="F104" t="s">
+        <v>10</v>
+      </c>
+      <c r="G104" t="s">
+        <v>10</v>
+      </c>
+      <c r="H104" t="s">
+        <v>10</v>
+      </c>
+      <c r="I104" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>224</v>
+        <v>118</v>
       </c>
       <c r="B105" t="s">
-        <v>225</v>
+        <v>119</v>
       </c>
       <c r="C105">
         <v>12</v>
@@ -4189,22 +3910,19 @@
       <c r="G105" t="s">
         <v>9</v>
       </c>
-      <c r="J105" t="s">
-        <v>226</v>
-      </c>
-      <c r="K105" t="s">
-        <v>20</v>
-      </c>
-      <c r="L105" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="H105" t="s">
+        <v>10</v>
+      </c>
+      <c r="I105" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>227</v>
+        <v>120</v>
       </c>
       <c r="B106" t="s">
-        <v>228</v>
+        <v>121</v>
       </c>
       <c r="C106">
         <v>15</v>
@@ -4221,19 +3939,19 @@
       <c r="G106" t="s">
         <v>9</v>
       </c>
-      <c r="J106" t="s">
-        <v>229</v>
-      </c>
-      <c r="K106" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="H106" t="s">
+        <v>10</v>
+      </c>
+      <c r="I106" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>16</v>
       </c>
       <c r="B107" t="s">
-        <v>230</v>
+        <v>122</v>
       </c>
       <c r="C107">
         <v>12</v>
@@ -4250,22 +3968,19 @@
       <c r="G107" t="s">
         <v>9</v>
       </c>
-      <c r="J107" t="s">
-        <v>231</v>
-      </c>
-      <c r="K107" t="s">
-        <v>20</v>
-      </c>
-      <c r="L107" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="H107" t="s">
+        <v>10</v>
+      </c>
+      <c r="I107" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="B108" t="s">
-        <v>233</v>
+        <v>123</v>
       </c>
       <c r="C108">
         <v>12</v>
@@ -4282,22 +3997,19 @@
       <c r="G108" t="s">
         <v>9</v>
       </c>
-      <c r="J108" t="s">
-        <v>169</v>
-      </c>
-      <c r="K108" t="s">
-        <v>20</v>
-      </c>
-      <c r="L108" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="H108" t="s">
+        <v>10</v>
+      </c>
+      <c r="I108" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>234</v>
+        <v>124</v>
       </c>
       <c r="B109" t="s">
-        <v>235</v>
+        <v>125</v>
       </c>
       <c r="C109">
         <v>55</v>
@@ -4314,28 +4026,25 @@
       <c r="G109" t="s">
         <v>9</v>
       </c>
-      <c r="J109" t="s">
-        <v>236</v>
-      </c>
-      <c r="K109" t="s">
-        <v>20</v>
-      </c>
-      <c r="L109" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="H109" t="s">
+        <v>10</v>
+      </c>
+      <c r="I109" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>237</v>
+        <v>126</v>
       </c>
       <c r="B110" t="s">
-        <v>235</v>
+        <v>125</v>
       </c>
       <c r="C110">
         <v>55</v>
       </c>
       <c r="D110" t="s">
-        <v>238</v>
+        <v>127</v>
       </c>
       <c r="E110" t="s">
         <v>9</v>
@@ -4346,13 +4055,19 @@
       <c r="G110" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="H110" t="s">
+        <v>10</v>
+      </c>
+      <c r="I110" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>239</v>
+        <v>128</v>
       </c>
       <c r="B111" t="s">
-        <v>240</v>
+        <v>129</v>
       </c>
       <c r="C111">
         <v>12</v>
@@ -4369,24 +4084,48 @@
       <c r="G111" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="H111" t="s">
+        <v>10</v>
+      </c>
+      <c r="I111" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>149</v>
+        <v>77</v>
       </c>
       <c r="B112" t="s">
-        <v>241</v>
+        <v>130</v>
       </c>
       <c r="C112">
         <v>0</v>
       </c>
-    </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D112" t="s">
+        <v>9</v>
+      </c>
+      <c r="E112" t="s">
+        <v>10</v>
+      </c>
+      <c r="F112" t="s">
+        <v>10</v>
+      </c>
+      <c r="G112" t="s">
+        <v>10</v>
+      </c>
+      <c r="H112" t="s">
+        <v>10</v>
+      </c>
+      <c r="I112" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B113" t="s">
-        <v>242</v>
+        <v>131</v>
       </c>
       <c r="C113">
         <v>12</v>
@@ -4403,13 +4142,19 @@
       <c r="G113" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H113" t="s">
+        <v>10</v>
+      </c>
+      <c r="I113" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B114" t="s">
-        <v>243</v>
+        <v>132</v>
       </c>
       <c r="C114">
         <v>12</v>
@@ -4426,13 +4171,19 @@
       <c r="G114" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H114" t="s">
+        <v>10</v>
+      </c>
+      <c r="I114" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>244</v>
+        <v>133</v>
       </c>
       <c r="B115" t="s">
-        <v>245</v>
+        <v>134</v>
       </c>
       <c r="C115">
         <v>12</v>
@@ -4452,13 +4203,16 @@
       <c r="H115" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I115" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B116" t="s">
-        <v>246</v>
+        <v>135</v>
       </c>
       <c r="C116">
         <v>12</v>
@@ -4475,13 +4229,19 @@
       <c r="G116" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H116" t="s">
+        <v>10</v>
+      </c>
+      <c r="I116" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>247</v>
+        <v>136</v>
       </c>
       <c r="B117" t="s">
-        <v>248</v>
+        <v>137</v>
       </c>
       <c r="C117">
         <v>10</v>
@@ -4498,13 +4258,19 @@
       <c r="G117" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H117" t="s">
+        <v>10</v>
+      </c>
+      <c r="I117" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>249</v>
+        <v>138</v>
       </c>
       <c r="B118" t="s">
-        <v>248</v>
+        <v>137</v>
       </c>
       <c r="C118">
         <v>10</v>
@@ -4521,13 +4287,19 @@
       <c r="G118" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H118" t="s">
+        <v>10</v>
+      </c>
+      <c r="I118" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>250</v>
+        <v>139</v>
       </c>
       <c r="B119" t="s">
-        <v>248</v>
+        <v>137</v>
       </c>
       <c r="C119">
         <v>10</v>
@@ -4544,24 +4316,48 @@
       <c r="G119" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H119" t="s">
+        <v>10</v>
+      </c>
+      <c r="I119" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>251</v>
+        <v>140</v>
       </c>
       <c r="B120" t="s">
-        <v>252</v>
+        <v>141</v>
       </c>
       <c r="C120">
         <v>0</v>
       </c>
-    </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D120" t="s">
+        <v>9</v>
+      </c>
+      <c r="E120" t="s">
+        <v>10</v>
+      </c>
+      <c r="F120" t="s">
+        <v>10</v>
+      </c>
+      <c r="G120" t="s">
+        <v>10</v>
+      </c>
+      <c r="H120" t="s">
+        <v>10</v>
+      </c>
+      <c r="I120" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>253</v>
+        <v>142</v>
       </c>
       <c r="B121" t="s">
-        <v>254</v>
+        <v>143</v>
       </c>
       <c r="C121">
         <v>12</v>
@@ -4578,13 +4374,19 @@
       <c r="G121" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H121" t="s">
+        <v>10</v>
+      </c>
+      <c r="I121" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>255</v>
+        <v>144</v>
       </c>
       <c r="B122" t="s">
-        <v>256</v>
+        <v>145</v>
       </c>
       <c r="C122">
         <v>12</v>
@@ -4601,24 +4403,48 @@
       <c r="G122" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H122" t="s">
+        <v>10</v>
+      </c>
+      <c r="I122" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>149</v>
+        <v>77</v>
       </c>
       <c r="B123" t="s">
-        <v>257</v>
+        <v>146</v>
       </c>
       <c r="C123">
         <v>0</v>
       </c>
-    </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D123" t="s">
+        <v>9</v>
+      </c>
+      <c r="E123" t="s">
+        <v>10</v>
+      </c>
+      <c r="F123" t="s">
+        <v>10</v>
+      </c>
+      <c r="G123" t="s">
+        <v>10</v>
+      </c>
+      <c r="H123" t="s">
+        <v>10</v>
+      </c>
+      <c r="I123" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>224</v>
+        <v>118</v>
       </c>
       <c r="B124" t="s">
-        <v>258</v>
+        <v>147</v>
       </c>
       <c r="C124">
         <v>10</v>
@@ -4635,24 +4461,48 @@
       <c r="G124" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H124" t="s">
+        <v>10</v>
+      </c>
+      <c r="I124" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>259</v>
+        <v>148</v>
       </c>
       <c r="B125" t="s">
-        <v>260</v>
+        <v>149</v>
       </c>
       <c r="C125">
         <v>0</v>
       </c>
-    </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D125" t="s">
+        <v>9</v>
+      </c>
+      <c r="E125" t="s">
+        <v>10</v>
+      </c>
+      <c r="F125" t="s">
+        <v>10</v>
+      </c>
+      <c r="G125" t="s">
+        <v>10</v>
+      </c>
+      <c r="H125" t="s">
+        <v>10</v>
+      </c>
+      <c r="I125" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>261</v>
+        <v>150</v>
       </c>
       <c r="B126" t="s">
-        <v>262</v>
+        <v>151</v>
       </c>
       <c r="C126">
         <v>5</v>
@@ -4669,13 +4519,19 @@
       <c r="G126" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H126" t="s">
+        <v>10</v>
+      </c>
+      <c r="I126" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B127" t="s">
-        <v>262</v>
+        <v>151</v>
       </c>
       <c r="C127">
         <v>5</v>
@@ -4692,13 +4548,19 @@
       <c r="G127" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H127" t="s">
+        <v>10</v>
+      </c>
+      <c r="I127" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B128" t="s">
-        <v>262</v>
+        <v>151</v>
       </c>
       <c r="C128">
         <v>5</v>
@@ -4715,13 +4577,19 @@
       <c r="G128" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H128" t="s">
+        <v>10</v>
+      </c>
+      <c r="I128" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>16</v>
       </c>
       <c r="B129" t="s">
-        <v>263</v>
+        <v>153</v>
       </c>
       <c r="C129">
         <v>10</v>
@@ -4738,13 +4606,19 @@
       <c r="G129" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H129" t="s">
+        <v>10</v>
+      </c>
+      <c r="I129" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>264</v>
+        <v>154</v>
       </c>
       <c r="B130" t="s">
-        <v>263</v>
+        <v>153</v>
       </c>
       <c r="C130">
         <v>10</v>
@@ -4761,13 +4635,19 @@
       <c r="G130" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H130" t="s">
+        <v>10</v>
+      </c>
+      <c r="I130" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>261</v>
+        <v>150</v>
       </c>
       <c r="B131" t="s">
-        <v>263</v>
+        <v>153</v>
       </c>
       <c r="C131">
         <v>10</v>
@@ -4784,13 +4664,19 @@
       <c r="G131" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H131" t="s">
+        <v>10</v>
+      </c>
+      <c r="I131" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>265</v>
+        <v>155</v>
       </c>
       <c r="B132" t="s">
-        <v>266</v>
+        <v>156</v>
       </c>
       <c r="C132">
         <v>10</v>
@@ -4801,16 +4687,25 @@
       <c r="E132" t="s">
         <v>10</v>
       </c>
+      <c r="F132" t="s">
+        <v>10</v>
+      </c>
+      <c r="G132" t="s">
+        <v>10</v>
+      </c>
       <c r="H132" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I132" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>16</v>
       </c>
       <c r="B133" t="s">
-        <v>267</v>
+        <v>157</v>
       </c>
       <c r="C133">
         <v>12</v>
@@ -4827,13 +4722,19 @@
       <c r="G133" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H133" t="s">
+        <v>10</v>
+      </c>
+      <c r="I133" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>179</v>
+        <v>94</v>
       </c>
       <c r="B134" t="s">
-        <v>268</v>
+        <v>158</v>
       </c>
       <c r="C134">
         <v>12</v>
@@ -4849,14 +4750,20 @@
       </c>
       <c r="G134" t="s">
         <v>9</v>
+      </c>
+      <c r="H134" t="s">
+        <v>10</v>
+      </c>
+      <c r="I134" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="9">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ONYX" prompt="Enter yes, if printer can use ONYX materal." sqref="I10:I73" xr:uid="{1985EC6D-49C6-44F8-BFEF-0DC1D8C8E82E}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ONYX" prompt="Enter yes, if printer can use ONYX materal." sqref="I37:I38 I57" xr:uid="{1985EC6D-49C6-44F8-BFEF-0DC1D8C8E82E}">
       <formula1>"yes,no"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="1.75mm nozzle" prompt="Enter yes, if the printer can use a 1.75mm nozzle" sqref="F2:G20 H2:H18 F24:G70 D2:D77 F74:G77 F79:G80 D79:D80 D82:D89 F82:G89 D91:D98 F91:G98 D100:D103 F100:G103 D107:D108 F107:G111 D111 D113:D118 F113:G119 F121:G122 D121:D122 D124 F124:G124 D126:D134 F126:G131 F133:G134" xr:uid="{3E91EC75-C6FA-4BFC-A82C-25D778E45738}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="1.75mm nozzle" prompt="Enter yes, if the printer can use a 1.75mm nozzle" sqref="F2:G20 F133:G134 F24:G70 D2:D77 F74:G77 F79:G80 D79:D80 D82:D89 F82:G89 D91:D98 F91:G98 D100:D103 F100:G103 D107:D108 F107:G111 D111 D113:D118 F113:G119 F121:G122 D121:D122 D124 F124:G124 D126:D134 F126:G131 H2:H15" xr:uid="{3E91EC75-C6FA-4BFC-A82C-25D778E45738}">
       <formula1>"yes,no"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="2.85mm nozzle" prompt="Enter yes is a 2.85mm nozzle can be used" sqref="E10:E77 E79:E80 E82:E89 E91:E98 E100:E103 E107:E108 E111 E113:E118 E121:E122 E124 E126:E134" xr:uid="{B3377876-B877-4F60-929C-7A7757BE243B}">
@@ -4868,7 +4775,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="PLA" prompt="Enter yes, if printer can use PLA material" sqref="G21:G23 G71:G73" xr:uid="{8E5368D1-06F9-4298-ADF9-113A41E13EAD}">
       <formula1>"yes,no"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ABS" prompt="Enter yes, if printer can use ABS material" sqref="H19:H73" xr:uid="{FE555FD0-860D-4925-A71D-42EE78C2302C}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ABS" prompt="Enter yes, if printer can use ABS material" sqref="H22:H23 H56:H57" xr:uid="{FE555FD0-860D-4925-A71D-42EE78C2302C}">
       <formula1>"yes,no"</formula1>
     </dataValidation>
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Production Rate" prompt="The number of visors the printer can print in one day" sqref="C10:C73 C77 C79 C82:C89 C91:C98 C100:C103 C107:C108 C111 C113:C116 C121:C122 C133:C134" xr:uid="{5FAED1E8-F898-41FE-8E84-2B167E727DC0}">
